--- a/Schémas/DATASHEETS/liste de pièces plaquette capteur.xlsx
+++ b/Schémas/DATASHEETS/liste de pièces plaquette capteur.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3D58B2D-BAFA-4A54-83AA-F95F02ACC3EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C42E7467-9C73-44C7-9F39-D113CB2684EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>nom</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>CKN9087CT-ND</t>
+  </si>
+  <si>
+    <t>agathe</t>
+  </si>
+  <si>
+    <t>609-4613-1-ND</t>
   </si>
 </sst>
 </file>
@@ -636,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -863,29 +869,43 @@
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
@@ -937,7 +957,7 @@
       </c>
       <c r="E25" s="15">
         <f>SUM(E3:E24)</f>
-        <v>23.44</v>
+        <v>24.03</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
